--- a/campaign/Canvass Route/062.xlsx
+++ b/campaign/Canvass Route/062.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="10545"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20730" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$789</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -7293,8 +7296,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7424,7 +7427,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="78DC78"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7491,7 +7494,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7526,7 +7528,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7702,14 +7703,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q789"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
@@ -7719,7 +7721,7 @@
     <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7772,7 +7774,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -7817,7 +7819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -7862,7 +7864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -7907,7 +7909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -7952,7 +7954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -7997,7 +7999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -8042,7 +8044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -8087,7 +8089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -8132,7 +8134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -8177,7 +8179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -8222,7 +8224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -8267,7 +8269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -8312,7 +8314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -8357,7 +8359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -8402,7 +8404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -8447,7 +8449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -8492,7 +8494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -8537,7 +8539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -8582,7 +8584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -8627,7 +8629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>15</v>
@@ -8672,7 +8674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>15</v>
@@ -8717,7 +8719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>15</v>
@@ -8762,7 +8764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
@@ -8807,7 +8809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
@@ -8852,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -8897,7 +8899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>15</v>
@@ -8942,7 +8944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>15</v>
@@ -8987,7 +8989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>15</v>
@@ -9032,7 +9034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
@@ -9077,7 +9079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>15</v>
@@ -9122,7 +9124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>15</v>
@@ -9167,7 +9169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>15</v>
@@ -9212,7 +9214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>15</v>
@@ -9257,7 +9259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>15</v>
@@ -9302,7 +9304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -9347,7 +9349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>15</v>
@@ -9392,7 +9394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>15</v>
@@ -9437,7 +9439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>15</v>
@@ -9482,7 +9484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -9527,7 +9529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -9572,7 +9574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>15</v>
@@ -9617,7 +9619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>15</v>
@@ -9662,7 +9664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>15</v>
@@ -9707,7 +9709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>15</v>
@@ -9752,7 +9754,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>15</v>
@@ -9797,7 +9799,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>15</v>
@@ -9842,7 +9844,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>15</v>
@@ -9887,7 +9889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>15</v>
@@ -9932,7 +9934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>15</v>
@@ -9977,7 +9979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>15</v>
@@ -10022,7 +10024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>15</v>
@@ -10067,7 +10069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>15</v>
@@ -10112,7 +10114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>15</v>
@@ -10157,7 +10159,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>15</v>
@@ -10202,7 +10204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>15</v>
@@ -10247,7 +10249,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>15</v>
@@ -10292,7 +10294,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>15</v>
@@ -10337,7 +10339,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>15</v>
@@ -10382,7 +10384,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>15</v>
@@ -10427,7 +10429,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>15</v>
@@ -10472,7 +10474,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>15</v>
@@ -10517,7 +10519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>15</v>
@@ -10562,7 +10564,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>15</v>
@@ -10607,7 +10609,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>15</v>
@@ -10652,7 +10654,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>15</v>
@@ -10697,7 +10699,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>15</v>
@@ -10742,7 +10744,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>15</v>
@@ -10787,7 +10789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>15</v>
@@ -10832,7 +10834,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>15</v>
@@ -10877,7 +10879,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>15</v>
@@ -10922,7 +10924,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>15</v>
@@ -10967,7 +10969,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>15</v>
@@ -11012,7 +11014,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>15</v>
@@ -11057,7 +11059,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>15</v>
@@ -11102,7 +11104,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>15</v>
@@ -11147,7 +11149,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>15</v>
@@ -11192,7 +11194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>15</v>
@@ -11237,7 +11239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>15</v>
@@ -11282,7 +11284,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>15</v>
@@ -11327,7 +11329,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>15</v>
@@ -11372,7 +11374,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>15</v>
@@ -11417,7 +11419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>15</v>
@@ -11462,7 +11464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>15</v>
@@ -11507,7 +11509,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>15</v>
@@ -11552,7 +11554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>15</v>
@@ -11597,7 +11599,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>15</v>
@@ -11642,7 +11644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>15</v>
@@ -11687,7 +11689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>15</v>
@@ -11732,7 +11734,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>15</v>
@@ -11777,7 +11779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>15</v>
@@ -11822,7 +11824,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>15</v>
@@ -11867,7 +11869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>15</v>
@@ -11912,7 +11914,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>15</v>
@@ -11957,7 +11959,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>15</v>
@@ -12002,7 +12004,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>15</v>
@@ -12047,7 +12049,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>15</v>
@@ -12092,7 +12094,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
         <v>15</v>
@@ -12137,7 +12139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>15</v>
@@ -12182,7 +12184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>15</v>
@@ -12227,7 +12229,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>15</v>
@@ -12272,7 +12274,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>15</v>
@@ -12317,7 +12319,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>15</v>
@@ -12362,7 +12364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>15</v>
@@ -12407,7 +12409,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>15</v>
@@ -12452,7 +12454,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>15</v>
@@ -12497,7 +12499,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>15</v>
@@ -12542,7 +12544,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>15</v>
@@ -12587,7 +12589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>15</v>
@@ -12632,7 +12634,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>15</v>
@@ -12677,7 +12679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>15</v>
@@ -12722,7 +12724,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>15</v>
@@ -12767,7 +12769,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>15</v>
@@ -12812,7 +12814,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
         <v>15</v>
@@ -12857,7 +12859,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>15</v>
@@ -12902,7 +12904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>15</v>
@@ -12947,7 +12949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>15</v>
@@ -12992,7 +12994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>15</v>
@@ -13037,7 +13039,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>15</v>
@@ -13082,7 +13084,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>15</v>
@@ -13127,7 +13129,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>15</v>
@@ -13172,7 +13174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>15</v>
@@ -13217,7 +13219,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>15</v>
@@ -13262,7 +13264,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>15</v>
@@ -13307,7 +13309,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>15</v>
@@ -13352,7 +13354,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>15</v>
@@ -13397,7 +13399,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>15</v>
@@ -13442,7 +13444,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>15</v>
@@ -13487,7 +13489,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>15</v>
@@ -13532,7 +13534,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>15</v>
@@ -13577,7 +13579,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>15</v>
@@ -13622,7 +13624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>15</v>
@@ -13667,7 +13669,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>15</v>
@@ -13712,7 +13714,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>15</v>
@@ -13757,7 +13759,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>15</v>
@@ -13802,7 +13804,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>15</v>
@@ -13847,7 +13849,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>15</v>
@@ -13892,7 +13894,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>15</v>
@@ -13937,7 +13939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>15</v>
@@ -13982,7 +13984,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>15</v>
@@ -14027,7 +14029,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>15</v>
@@ -14072,7 +14074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>15</v>
@@ -14117,7 +14119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>15</v>
@@ -14162,7 +14164,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>15</v>
@@ -14207,7 +14209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>15</v>
@@ -14252,7 +14254,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>15</v>
@@ -14297,7 +14299,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>15</v>
@@ -14342,7 +14344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>15</v>
@@ -14387,7 +14389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>15</v>
@@ -14432,7 +14434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>15</v>
@@ -14477,7 +14479,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>15</v>
@@ -14522,7 +14524,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>15</v>
@@ -14567,7 +14569,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>15</v>
@@ -14612,7 +14614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>15</v>
@@ -14657,7 +14659,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>15</v>
@@ -14702,7 +14704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>15</v>
@@ -14747,7 +14749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>15</v>
@@ -14792,7 +14794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>15</v>
@@ -14837,7 +14839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>15</v>
@@ -14882,7 +14884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>15</v>
@@ -14927,7 +14929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>15</v>
@@ -14972,7 +14974,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>15</v>
@@ -15017,7 +15019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>15</v>
@@ -15062,7 +15064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>15</v>
@@ -15107,7 +15109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>15</v>
@@ -15152,7 +15154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>15</v>
@@ -15197,7 +15199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
         <v>15</v>
@@ -15242,7 +15244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>15</v>
@@ -15287,7 +15289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
         <v>15</v>
@@ -15332,7 +15334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>15</v>
@@ -15377,7 +15379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
         <v>15</v>
@@ -15422,7 +15424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>15</v>
@@ -15467,7 +15469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>15</v>
@@ -15512,7 +15514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
         <v>15</v>
@@ -15557,7 +15559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>15</v>
@@ -15602,7 +15604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
         <v>15</v>
@@ -15647,7 +15649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>15</v>
@@ -15692,7 +15694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
         <v>15</v>
@@ -15737,7 +15739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
         <v>15</v>
@@ -15782,7 +15784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>15</v>
@@ -15827,7 +15829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
         <v>15</v>
@@ -15872,7 +15874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>15</v>
@@ -15917,7 +15919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>15</v>
@@ -15962,7 +15964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>15</v>
@@ -16007,7 +16009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>15</v>
@@ -16052,7 +16054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>15</v>
@@ -16097,7 +16099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>15</v>
@@ -16142,7 +16144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>15</v>
@@ -16187,7 +16189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>15</v>
@@ -16232,7 +16234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
         <v>15</v>
@@ -16277,7 +16279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>15</v>
@@ -16322,7 +16324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>15</v>
@@ -16367,7 +16369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>15</v>
@@ -16412,7 +16414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
         <v>15</v>
@@ -16457,7 +16459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>15</v>
@@ -16502,7 +16504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>15</v>
@@ -16547,7 +16549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>15</v>
@@ -16592,7 +16594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>15</v>
@@ -16637,7 +16639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>15</v>
@@ -16682,7 +16684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>15</v>
@@ -16727,7 +16729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>15</v>
@@ -16772,7 +16774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>15</v>
@@ -16817,7 +16819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>15</v>
@@ -16862,7 +16864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>15</v>
@@ -16907,7 +16909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>15</v>
@@ -16952,7 +16954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>15</v>
@@ -16997,7 +16999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>15</v>
@@ -17042,7 +17044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>15</v>
@@ -17087,7 +17089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>15</v>
@@ -17132,7 +17134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
         <v>15</v>
@@ -17177,7 +17179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>15</v>
@@ -17222,7 +17224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>15</v>
@@ -17267,7 +17269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" hidden="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>15</v>
@@ -17312,7 +17314,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>15</v>
@@ -17357,7 +17359,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>15</v>
@@ -17402,7 +17404,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
         <v>15</v>
@@ -17447,7 +17449,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>15</v>
@@ -17492,7 +17494,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>15</v>
@@ -17537,7 +17539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
         <v>15</v>
@@ -17582,7 +17584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
         <v>15</v>
@@ -17627,7 +17629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>15</v>
@@ -17672,7 +17674,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
         <v>15</v>
@@ -17717,7 +17719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
         <v>15</v>
@@ -17762,7 +17764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
         <v>15</v>
@@ -17807,7 +17809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>15</v>
@@ -17852,7 +17854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
         <v>15</v>
@@ -17897,7 +17899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
         <v>15</v>
@@ -17942,7 +17944,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
         <v>15</v>
@@ -17987,7 +17989,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
         <v>15</v>
@@ -18032,7 +18034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>15</v>
@@ -18077,7 +18079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>15</v>
@@ -18122,7 +18124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
         <v>15</v>
@@ -18167,7 +18169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>15</v>
@@ -18212,7 +18214,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
         <v>15</v>
@@ -18257,7 +18259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>15</v>
@@ -18302,7 +18304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>15</v>
@@ -18347,7 +18349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
         <v>15</v>
@@ -18392,7 +18394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
         <v>15</v>
@@ -18437,7 +18439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>15</v>
@@ -18482,7 +18484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
         <v>15</v>
@@ -18527,7 +18529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
         <v>15</v>
@@ -18572,7 +18574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
         <v>15</v>
@@ -18617,7 +18619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
         <v>15</v>
@@ -18662,7 +18664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" hidden="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
         <v>15</v>
@@ -18707,7 +18709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" hidden="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
         <v>15</v>
@@ -18752,7 +18754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
         <v>15</v>
@@ -18797,7 +18799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" hidden="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
         <v>15</v>
@@ -18842,7 +18844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" hidden="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
         <v>15</v>
@@ -18887,7 +18889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>15</v>
@@ -18932,7 +18934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" hidden="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
         <v>15</v>
@@ -18977,7 +18979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>15</v>
@@ -19022,7 +19024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" hidden="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
         <v>15</v>
@@ -19067,7 +19069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" hidden="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
         <v>15</v>
@@ -19112,7 +19114,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" hidden="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
         <v>15</v>
@@ -19157,7 +19159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" hidden="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>15</v>
@@ -19202,7 +19204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" hidden="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>15</v>
@@ -19247,7 +19249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
         <v>15</v>
@@ -19292,7 +19294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>15</v>
@@ -19337,7 +19339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>15</v>
@@ -19382,7 +19384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" hidden="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>15</v>
@@ -19427,7 +19429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" hidden="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
         <v>15</v>
@@ -19472,7 +19474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
         <v>15</v>
@@ -19517,7 +19519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
         <v>15</v>
@@ -19562,7 +19564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" hidden="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
         <v>15</v>
@@ -19607,7 +19609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>15</v>
@@ -19652,7 +19654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1" t="s">
         <v>15</v>
@@ -19697,7 +19699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
         <v>15</v>
@@ -19742,7 +19744,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" hidden="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1" t="s">
         <v>15</v>
@@ -19787,7 +19789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" hidden="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
         <v>15</v>
@@ -19832,7 +19834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" hidden="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
         <v>15</v>
@@ -19877,7 +19879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" hidden="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
         <v>15</v>
@@ -19922,7 +19924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1" t="s">
         <v>15</v>
@@ -19967,7 +19969,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1" t="s">
         <v>15</v>
@@ -20012,7 +20014,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1" t="s">
         <v>15</v>
@@ -20057,7 +20059,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
         <v>15</v>
@@ -20102,7 +20104,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1" t="s">
         <v>15</v>
@@ -20147,7 +20149,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>15</v>
@@ -20192,7 +20194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>15</v>
@@ -20237,7 +20239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
         <v>15</v>
@@ -20282,7 +20284,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1" t="s">
         <v>15</v>
@@ -20327,7 +20329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
         <v>15</v>
@@ -20372,7 +20374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
         <v>15</v>
@@ -20417,7 +20419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1" t="s">
         <v>15</v>
@@ -20462,7 +20464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
         <v>15</v>
@@ -20507,7 +20509,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1" t="s">
         <v>15</v>
@@ -20552,7 +20554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
         <v>15</v>
@@ -20597,7 +20599,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
         <v>15</v>
@@ -20642,7 +20644,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
         <v>15</v>
@@ -20687,7 +20689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
         <v>15</v>
@@ -20732,7 +20734,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1" t="s">
         <v>15</v>
@@ -20777,7 +20779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1" t="s">
         <v>15</v>
@@ -20822,7 +20824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1" t="s">
         <v>15</v>
@@ -20867,7 +20869,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="s">
         <v>15</v>
@@ -20912,7 +20914,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1" t="s">
         <v>15</v>
@@ -20957,7 +20959,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1" t="s">
         <v>15</v>
@@ -21002,7 +21004,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1" t="s">
         <v>15</v>
@@ -21047,7 +21049,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
         <v>15</v>
@@ -21092,7 +21094,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
         <v>15</v>
@@ -21137,7 +21139,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
         <v>15</v>
@@ -21182,7 +21184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>15</v>
@@ -21227,7 +21229,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>15</v>
@@ -21272,7 +21274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1" t="s">
         <v>15</v>
@@ -21317,7 +21319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1" t="s">
         <v>15</v>
@@ -21362,7 +21364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
         <v>15</v>
@@ -21407,7 +21409,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" hidden="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1" t="s">
         <v>15</v>
@@ -21452,7 +21454,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" hidden="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1" t="s">
         <v>15</v>
@@ -21497,7 +21499,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" hidden="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1" t="s">
         <v>15</v>
@@ -21542,7 +21544,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" hidden="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
         <v>15</v>
@@ -21587,7 +21589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" hidden="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
         <v>15</v>
@@ -21632,7 +21634,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" hidden="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
         <v>15</v>
@@ -21677,7 +21679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" hidden="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="s">
         <v>15</v>
@@ -21722,7 +21724,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" hidden="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="s">
         <v>15</v>
@@ -21767,7 +21769,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" hidden="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="s">
         <v>15</v>
@@ -21812,7 +21814,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" hidden="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
         <v>15</v>
@@ -21857,7 +21859,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" hidden="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="s">
         <v>15</v>
@@ -21902,7 +21904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" hidden="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
         <v>15</v>
@@ -21947,7 +21949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" hidden="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
         <v>15</v>
@@ -21992,7 +21994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" hidden="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
         <v>15</v>
@@ -22037,7 +22039,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>15</v>
@@ -22082,7 +22084,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" hidden="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="s">
         <v>15</v>
@@ -22127,7 +22129,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" hidden="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
         <v>15</v>
@@ -22172,7 +22174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" hidden="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1" t="s">
         <v>15</v>
@@ -22217,7 +22219,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" hidden="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="s">
         <v>15</v>
@@ -22262,7 +22264,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" hidden="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="s">
         <v>15</v>
@@ -22307,7 +22309,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" hidden="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="s">
         <v>15</v>
@@ -22352,7 +22354,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
         <v>15</v>
@@ -22397,7 +22399,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" hidden="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="s">
         <v>15</v>
@@ -22442,7 +22444,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" hidden="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
         <v>15</v>
@@ -22487,7 +22489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" hidden="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="s">
         <v>15</v>
@@ -22532,7 +22534,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" hidden="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
         <v>15</v>
@@ -22577,7 +22579,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" hidden="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
         <v>15</v>
@@ -22622,7 +22624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" hidden="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
         <v>15</v>
@@ -22667,7 +22669,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" hidden="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
         <v>15</v>
@@ -22712,7 +22714,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" hidden="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
         <v>15</v>
@@ -22757,7 +22759,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" hidden="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
         <v>15</v>
@@ -22802,7 +22804,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" hidden="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
         <v>15</v>
@@ -22847,7 +22849,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
         <v>15</v>
@@ -22892,7 +22894,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" hidden="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1" t="s">
         <v>15</v>
@@ -22937,7 +22939,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
         <v>15</v>
@@ -22982,7 +22984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" hidden="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
         <v>15</v>
@@ -23027,7 +23029,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" hidden="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
         <v>15</v>
@@ -23072,7 +23074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" hidden="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1" t="s">
         <v>15</v>
@@ -23117,7 +23119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" hidden="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
         <v>15</v>
@@ -23162,7 +23164,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" hidden="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1" t="s">
         <v>15</v>
@@ -23207,7 +23209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" hidden="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1" t="s">
         <v>15</v>
@@ -23252,7 +23254,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" hidden="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>15</v>
@@ -23297,7 +23299,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" hidden="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>15</v>
@@ -23342,7 +23344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" hidden="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1" t="s">
         <v>15</v>
@@ -23387,7 +23389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" hidden="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
         <v>15</v>
@@ -23432,7 +23434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" hidden="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
         <v>15</v>
@@ -23477,7 +23479,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" hidden="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
         <v>15</v>
@@ -23522,7 +23524,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" hidden="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
         <v>15</v>
@@ -23567,7 +23569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" hidden="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1" t="s">
         <v>15</v>
@@ -23612,7 +23614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1" t="s">
         <v>15</v>
@@ -23657,7 +23659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
         <v>15</v>
@@ -23702,7 +23704,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" hidden="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
         <v>15</v>
@@ -23747,7 +23749,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1" t="s">
         <v>15</v>
@@ -23792,7 +23794,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1" t="s">
         <v>15</v>
@@ -23837,7 +23839,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1" t="s">
         <v>15</v>
@@ -23882,7 +23884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
         <v>15</v>
@@ -23927,7 +23929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" hidden="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>15</v>
@@ -23972,7 +23974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
         <v>15</v>
@@ -24017,7 +24019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
         <v>15</v>
@@ -24062,7 +24064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1" t="s">
         <v>15</v>
@@ -24107,7 +24109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1" t="s">
         <v>15</v>
@@ -24152,7 +24154,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1" t="s">
         <v>15</v>
@@ -24197,7 +24199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
         <v>15</v>
@@ -24242,7 +24244,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" hidden="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
         <v>15</v>
@@ -24287,7 +24289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" hidden="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1" t="s">
         <v>15</v>
@@ -24332,7 +24334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" hidden="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1" t="s">
         <v>15</v>
@@ -24377,7 +24379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
         <v>15</v>
@@ -24422,7 +24424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1" t="s">
         <v>15</v>
@@ -24467,7 +24469,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
         <v>15</v>
@@ -24512,7 +24514,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1" t="s">
         <v>15</v>
@@ -24557,7 +24559,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" hidden="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
         <v>15</v>
@@ -24602,7 +24604,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" hidden="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
         <v>15</v>
@@ -24647,7 +24649,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" hidden="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1" t="s">
         <v>15</v>
@@ -24692,7 +24694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" hidden="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
         <v>15</v>
@@ -24737,7 +24739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" hidden="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1" t="s">
         <v>15</v>
@@ -24782,7 +24784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" hidden="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="s">
         <v>15</v>
@@ -24827,7 +24829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" hidden="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1" t="s">
         <v>15</v>
@@ -24872,7 +24874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1" t="s">
         <v>15</v>
@@ -24917,7 +24919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" hidden="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1" t="s">
         <v>15</v>
@@ -24962,7 +24964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" hidden="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
         <v>15</v>
@@ -25007,7 +25009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" hidden="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
         <v>15</v>
@@ -25052,7 +25054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" hidden="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1" t="s">
         <v>15</v>
@@ -25097,7 +25099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" hidden="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="s">
         <v>15</v>
@@ -25142,7 +25144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" hidden="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
         <v>15</v>
@@ -25187,7 +25189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" hidden="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="s">
         <v>15</v>
@@ -25232,7 +25234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" hidden="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1" t="s">
         <v>15</v>
@@ -25277,7 +25279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" hidden="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="s">
         <v>15</v>
@@ -25322,7 +25324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" hidden="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="s">
         <v>15</v>
@@ -25367,7 +25369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" hidden="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1" t="s">
         <v>15</v>
@@ -25412,7 +25414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" hidden="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1" t="s">
         <v>15</v>
@@ -25457,7 +25459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" hidden="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1" t="s">
         <v>15</v>
@@ -25502,7 +25504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" hidden="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1" t="s">
         <v>15</v>
@@ -25547,7 +25549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" hidden="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1" t="s">
         <v>15</v>
@@ -25592,7 +25594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" hidden="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1" t="s">
         <v>15</v>
@@ -25637,7 +25639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" hidden="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1" t="s">
         <v>15</v>
@@ -25682,7 +25684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" hidden="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
         <v>15</v>
@@ -25727,7 +25729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" hidden="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1" t="s">
         <v>15</v>
@@ -25772,7 +25774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" hidden="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1" t="s">
         <v>15</v>
@@ -25817,7 +25819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" hidden="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1" t="s">
         <v>15</v>
@@ -25862,7 +25864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" hidden="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1" t="s">
         <v>15</v>
@@ -25907,7 +25909,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" hidden="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1" t="s">
         <v>15</v>
@@ -25952,7 +25954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" hidden="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1" t="s">
         <v>15</v>
@@ -25997,7 +25999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" hidden="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1" t="s">
         <v>15</v>
@@ -26042,7 +26044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" hidden="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1" t="s">
         <v>15</v>
@@ -26087,7 +26089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" hidden="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1" t="s">
         <v>15</v>
@@ -26132,7 +26134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" hidden="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1" t="s">
         <v>15</v>
@@ -26177,7 +26179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" hidden="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1" t="s">
         <v>15</v>
@@ -26222,7 +26224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" hidden="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1" t="s">
         <v>15</v>
@@ -26267,7 +26269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" hidden="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1" t="s">
         <v>15</v>
@@ -26312,7 +26314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" hidden="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1" t="s">
         <v>15</v>
@@ -26357,7 +26359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" hidden="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1" t="s">
         <v>15</v>
@@ -26402,7 +26404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" hidden="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1" t="s">
         <v>15</v>
@@ -26447,7 +26449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" hidden="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
         <v>15</v>
@@ -26492,7 +26494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" hidden="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1" t="s">
         <v>15</v>
@@ -26537,7 +26539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" hidden="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1" t="s">
         <v>15</v>
@@ -26582,7 +26584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" hidden="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1" t="s">
         <v>15</v>
@@ -26627,7 +26629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" hidden="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1" t="s">
         <v>15</v>
@@ -26672,7 +26674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" hidden="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1" t="s">
         <v>15</v>
@@ -26717,7 +26719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" hidden="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1" t="s">
         <v>15</v>
@@ -26762,7 +26764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" hidden="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1" t="s">
         <v>15</v>
@@ -26807,7 +26809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" hidden="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1" t="s">
         <v>15</v>
@@ -26852,7 +26854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" hidden="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1" t="s">
         <v>15</v>
@@ -26897,7 +26899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" hidden="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1" t="s">
         <v>15</v>
@@ -26942,7 +26944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" hidden="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
         <v>15</v>
@@ -26987,7 +26989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" hidden="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1" t="s">
         <v>15</v>
@@ -27032,7 +27034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" hidden="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1" t="s">
         <v>15</v>
@@ -27077,7 +27079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" hidden="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1" t="s">
         <v>15</v>
@@ -27122,7 +27124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" hidden="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1" t="s">
         <v>15</v>
@@ -27167,7 +27169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" hidden="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1" t="s">
         <v>15</v>
@@ -27212,7 +27214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1" t="s">
         <v>15</v>
@@ -27257,7 +27259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1" t="s">
         <v>15</v>
@@ -27302,7 +27304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1" t="s">
         <v>15</v>
@@ -27347,7 +27349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1" t="s">
         <v>15</v>
@@ -27392,7 +27394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1" t="s">
         <v>15</v>
@@ -27437,7 +27439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1" t="s">
         <v>15</v>
@@ -27482,7 +27484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1" t="s">
         <v>15</v>
@@ -27527,7 +27529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
         <v>15</v>
@@ -27572,7 +27574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1" t="s">
         <v>15</v>
@@ -27617,7 +27619,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" hidden="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1" t="s">
         <v>15</v>
@@ -27662,7 +27664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" hidden="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1" t="s">
         <v>15</v>
@@ -27707,7 +27709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" hidden="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="s">
         <v>15</v>
@@ -27752,7 +27754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" hidden="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1" t="s">
         <v>15</v>
@@ -27797,7 +27799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" hidden="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1" t="s">
         <v>15</v>
@@ -27842,7 +27844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" hidden="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1" t="s">
         <v>15</v>
@@ -27887,7 +27889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" hidden="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="s">
         <v>15</v>
@@ -27932,7 +27934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" hidden="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1" t="s">
         <v>15</v>
@@ -27977,7 +27979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" hidden="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="s">
         <v>15</v>
@@ -28022,7 +28024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" hidden="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1" t="s">
         <v>15</v>
@@ -28067,7 +28069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" hidden="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1" t="s">
         <v>15</v>
@@ -28112,7 +28114,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" hidden="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1" t="s">
         <v>15</v>
@@ -28157,7 +28159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" hidden="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1" t="s">
         <v>15</v>
@@ -28202,7 +28204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" hidden="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1" t="s">
         <v>15</v>
@@ -28247,7 +28249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" hidden="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1" t="s">
         <v>15</v>
@@ -28292,7 +28294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" hidden="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1" t="s">
         <v>15</v>
@@ -28337,7 +28339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" hidden="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1" t="s">
         <v>15</v>
@@ -28382,7 +28384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" hidden="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1" t="s">
         <v>15</v>
@@ -28427,7 +28429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" hidden="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1" t="s">
         <v>15</v>
@@ -28472,7 +28474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" hidden="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1" t="s">
         <v>15</v>
@@ -28517,7 +28519,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" hidden="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1" t="s">
         <v>15</v>
@@ -28562,7 +28564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" hidden="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1" t="s">
         <v>15</v>
@@ -28607,7 +28609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" hidden="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1" t="s">
         <v>15</v>
@@ -28652,7 +28654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" hidden="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1" t="s">
         <v>15</v>
@@ -28697,7 +28699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" hidden="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1" t="s">
         <v>15</v>
@@ -28742,7 +28744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" hidden="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1" t="s">
         <v>15</v>
@@ -28787,7 +28789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" hidden="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1" t="s">
         <v>15</v>
@@ -28832,7 +28834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" hidden="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1" t="s">
         <v>15</v>
@@ -28877,7 +28879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" hidden="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
         <v>15</v>
@@ -28922,7 +28924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" hidden="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1" t="s">
         <v>15</v>
@@ -28967,7 +28969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" hidden="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1" t="s">
         <v>15</v>
@@ -29012,7 +29014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" hidden="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1" t="s">
         <v>15</v>
@@ -29057,7 +29059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1" t="s">
         <v>15</v>
@@ -29102,7 +29104,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" hidden="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1" t="s">
         <v>15</v>
@@ -29147,7 +29149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" hidden="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1" t="s">
         <v>15</v>
@@ -29192,7 +29194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" hidden="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1" t="s">
         <v>15</v>
@@ -29237,7 +29239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" hidden="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1" t="s">
         <v>15</v>
@@ -29282,7 +29284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" hidden="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1" t="s">
         <v>15</v>
@@ -29327,7 +29329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" hidden="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1" t="s">
         <v>15</v>
@@ -29372,7 +29374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" hidden="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1" t="s">
         <v>15</v>
@@ -29417,7 +29419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" hidden="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1" t="s">
         <v>15</v>
@@ -29462,7 +29464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" hidden="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1" t="s">
         <v>15</v>
@@ -29507,7 +29509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1" t="s">
         <v>15</v>
@@ -29552,7 +29554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" hidden="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1" t="s">
         <v>15</v>
@@ -29597,7 +29599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" hidden="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1" t="s">
         <v>15</v>
@@ -29642,7 +29644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" hidden="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1" t="s">
         <v>15</v>
@@ -29687,7 +29689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" hidden="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1" t="s">
         <v>15</v>
@@ -29732,7 +29734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" hidden="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1" t="s">
         <v>15</v>
@@ -29777,7 +29779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" hidden="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1" t="s">
         <v>15</v>
@@ -29822,7 +29824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" hidden="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1" t="s">
         <v>15</v>
@@ -29867,7 +29869,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" hidden="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1" t="s">
         <v>15</v>
@@ -29912,7 +29914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" hidden="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1" t="s">
         <v>15</v>
@@ -29957,7 +29959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" hidden="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1" t="s">
         <v>15</v>
@@ -30002,7 +30004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" hidden="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1" t="s">
         <v>15</v>
@@ -30047,7 +30049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" hidden="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1" t="s">
         <v>15</v>
@@ -30092,7 +30094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" hidden="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1" t="s">
         <v>15</v>
@@ -30137,7 +30139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" hidden="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1" t="s">
         <v>15</v>
@@ -30182,7 +30184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" hidden="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1" t="s">
         <v>15</v>
@@ -30227,7 +30229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" hidden="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1" t="s">
         <v>15</v>
@@ -30272,7 +30274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" hidden="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1" t="s">
         <v>15</v>
@@ -30317,7 +30319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" hidden="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1" t="s">
         <v>15</v>
@@ -30362,7 +30364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" hidden="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1" t="s">
         <v>15</v>
@@ -30407,7 +30409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" hidden="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1" t="s">
         <v>15</v>
@@ -30452,7 +30454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" hidden="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1" t="s">
         <v>15</v>
@@ -30497,7 +30499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" hidden="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1" t="s">
         <v>15</v>
@@ -30542,7 +30544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" hidden="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1" t="s">
         <v>15</v>
@@ -30587,7 +30589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" hidden="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1" t="s">
         <v>15</v>
@@ -30632,7 +30634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" hidden="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="s">
         <v>15</v>
@@ -30677,7 +30679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" hidden="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1" t="s">
         <v>15</v>
@@ -30722,7 +30724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" hidden="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1" t="s">
         <v>15</v>
@@ -30767,7 +30769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" hidden="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1" t="s">
         <v>15</v>
@@ -30812,7 +30814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" hidden="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1" t="s">
         <v>15</v>
@@ -30857,7 +30859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" hidden="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1" t="s">
         <v>15</v>
@@ -30902,7 +30904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" hidden="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1" t="s">
         <v>15</v>
@@ -30947,7 +30949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" hidden="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1" t="s">
         <v>15</v>
@@ -30992,7 +30994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" hidden="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1" t="s">
         <v>15</v>
@@ -31037,7 +31039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" hidden="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1" t="s">
         <v>15</v>
@@ -31082,7 +31084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" hidden="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1" t="s">
         <v>15</v>
@@ -31127,7 +31129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" hidden="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1" t="s">
         <v>15</v>
@@ -31172,7 +31174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" hidden="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1" t="s">
         <v>15</v>
@@ -31217,7 +31219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" hidden="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1" t="s">
         <v>15</v>
@@ -31262,7 +31264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" hidden="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1" t="s">
         <v>15</v>
@@ -31307,7 +31309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" hidden="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1" t="s">
         <v>15</v>
@@ -31352,7 +31354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" hidden="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1" t="s">
         <v>15</v>
@@ -31397,7 +31399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" hidden="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1" t="s">
         <v>15</v>
@@ -31442,7 +31444,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" hidden="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1" t="s">
         <v>15</v>
@@ -31487,7 +31489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" hidden="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1" t="s">
         <v>15</v>
@@ -31532,7 +31534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" hidden="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1" t="s">
         <v>15</v>
@@ -31577,7 +31579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" hidden="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1" t="s">
         <v>15</v>
@@ -31622,7 +31624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" hidden="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1" t="s">
         <v>15</v>
@@ -31667,7 +31669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" hidden="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1" t="s">
         <v>15</v>
@@ -31712,7 +31714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" hidden="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1" t="s">
         <v>15</v>
@@ -31757,7 +31759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" hidden="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1" t="s">
         <v>15</v>
@@ -31802,7 +31804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" hidden="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1" t="s">
         <v>15</v>
@@ -31847,7 +31849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" hidden="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1" t="s">
         <v>15</v>
@@ -31892,7 +31894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" hidden="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1" t="s">
         <v>15</v>
@@ -31937,7 +31939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" hidden="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1" t="s">
         <v>15</v>
@@ -31982,7 +31984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" hidden="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1" t="s">
         <v>15</v>
@@ -32027,7 +32029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" hidden="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1" t="s">
         <v>15</v>
@@ -32072,7 +32074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" hidden="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1" t="s">
         <v>15</v>
@@ -32117,7 +32119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" hidden="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1" t="s">
         <v>15</v>
@@ -32162,7 +32164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" hidden="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1" t="s">
         <v>15</v>
@@ -32207,7 +32209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" hidden="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1" t="s">
         <v>15</v>
@@ -32252,7 +32254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" hidden="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1" t="s">
         <v>15</v>
@@ -32297,7 +32299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" hidden="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1" t="s">
         <v>15</v>
@@ -32342,7 +32344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" hidden="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1" t="s">
         <v>15</v>
@@ -32387,7 +32389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" hidden="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1" t="s">
         <v>15</v>
@@ -32432,7 +32434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" hidden="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1" t="s">
         <v>15</v>
@@ -32477,7 +32479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" hidden="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1" t="s">
         <v>15</v>
@@ -32522,7 +32524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" hidden="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1" t="s">
         <v>15</v>
@@ -32567,7 +32569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" hidden="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1" t="s">
         <v>15</v>
@@ -32612,7 +32614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" hidden="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1" t="s">
         <v>15</v>
@@ -32657,7 +32659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" hidden="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1" t="s">
         <v>15</v>
@@ -32702,7 +32704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" hidden="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1" t="s">
         <v>15</v>
@@ -32747,7 +32749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" hidden="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1" t="s">
         <v>15</v>
@@ -32792,7 +32794,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" hidden="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1" t="s">
         <v>15</v>
@@ -32837,7 +32839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" hidden="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1" t="s">
         <v>15</v>
@@ -32882,7 +32884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" hidden="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1" t="s">
         <v>15</v>
@@ -32927,7 +32929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" hidden="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1" t="s">
         <v>15</v>
@@ -32972,7 +32974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" hidden="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1" t="s">
         <v>15</v>
@@ -33017,7 +33019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" hidden="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1" t="s">
         <v>15</v>
@@ -33062,7 +33064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" hidden="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1" t="s">
         <v>15</v>
@@ -33107,7 +33109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" hidden="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1" t="s">
         <v>15</v>
@@ -33152,7 +33154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" hidden="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1" t="s">
         <v>15</v>
@@ -33197,7 +33199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" hidden="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1" t="s">
         <v>15</v>
@@ -33242,7 +33244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" hidden="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1" t="s">
         <v>15</v>
@@ -33287,7 +33289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" hidden="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1" t="s">
         <v>15</v>
@@ -33332,7 +33334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" hidden="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1" t="s">
         <v>15</v>
@@ -33377,7 +33379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" hidden="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1" t="s">
         <v>15</v>
@@ -33422,7 +33424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" hidden="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1" t="s">
         <v>15</v>
@@ -33467,7 +33469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" hidden="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1" t="s">
         <v>15</v>
@@ -33512,7 +33514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" hidden="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1" t="s">
         <v>15</v>
@@ -33557,7 +33559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" hidden="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1" t="s">
         <v>15</v>
@@ -33602,7 +33604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" hidden="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1" t="s">
         <v>15</v>
@@ -33647,7 +33649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" hidden="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1" t="s">
         <v>15</v>
@@ -33692,7 +33694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" hidden="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1" t="s">
         <v>15</v>
@@ -33737,7 +33739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" hidden="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1" t="s">
         <v>15</v>
@@ -33782,7 +33784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" hidden="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1" t="s">
         <v>15</v>
@@ -33827,7 +33829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" hidden="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1" t="s">
         <v>15</v>
@@ -33872,7 +33874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" hidden="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1" t="s">
         <v>15</v>
@@ -33917,7 +33919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" hidden="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1" t="s">
         <v>15</v>
@@ -33962,7 +33964,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" hidden="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1" t="s">
         <v>15</v>
@@ -34007,7 +34009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" hidden="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1" t="s">
         <v>15</v>
@@ -34052,7 +34054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" hidden="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1" t="s">
         <v>15</v>
@@ -34097,7 +34099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" hidden="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1" t="s">
         <v>15</v>
@@ -34142,7 +34144,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" hidden="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1" t="s">
         <v>15</v>
@@ -34187,7 +34189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" hidden="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1" t="s">
         <v>15</v>
@@ -34232,7 +34234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" hidden="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1" t="s">
         <v>15</v>
@@ -34277,7 +34279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" hidden="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1" t="s">
         <v>15</v>
@@ -34322,7 +34324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" hidden="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1" t="s">
         <v>15</v>
@@ -34367,7 +34369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" hidden="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1" t="s">
         <v>15</v>
@@ -34412,7 +34414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" hidden="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1" t="s">
         <v>15</v>
@@ -34457,7 +34459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" hidden="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1" t="s">
         <v>15</v>
@@ -34502,7 +34504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" hidden="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1" t="s">
         <v>15</v>
@@ -34547,7 +34549,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" hidden="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1" t="s">
         <v>15</v>
@@ -34592,7 +34594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" hidden="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1" t="s">
         <v>15</v>
@@ -34637,7 +34639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" hidden="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1" t="s">
         <v>15</v>
@@ -34682,7 +34684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" hidden="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1" t="s">
         <v>15</v>
@@ -34727,7 +34729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" hidden="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1" t="s">
         <v>15</v>
@@ -34772,7 +34774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" hidden="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1" t="s">
         <v>15</v>
@@ -34817,7 +34819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" hidden="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1" t="s">
         <v>15</v>
@@ -34862,7 +34864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" hidden="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1" t="s">
         <v>15</v>
@@ -34907,7 +34909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" hidden="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1" t="s">
         <v>15</v>
@@ -34952,7 +34954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" hidden="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1" t="s">
         <v>15</v>
@@ -34997,7 +34999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" hidden="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1" t="s">
         <v>15</v>
@@ -35042,7 +35044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" hidden="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1" t="s">
         <v>15</v>
@@ -35087,7 +35089,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" hidden="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1" t="s">
         <v>15</v>
@@ -35132,7 +35134,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" hidden="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1" t="s">
         <v>15</v>
@@ -35177,7 +35179,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" hidden="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1" t="s">
         <v>15</v>
@@ -35222,7 +35224,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" hidden="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1" t="s">
         <v>15</v>
@@ -35267,7 +35269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" hidden="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1" t="s">
         <v>15</v>
@@ -35312,7 +35314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" hidden="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1" t="s">
         <v>15</v>
@@ -35357,7 +35359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" hidden="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1" t="s">
         <v>15</v>
@@ -35402,7 +35404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" hidden="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1" t="s">
         <v>15</v>
@@ -35447,7 +35449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" hidden="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1" t="s">
         <v>15</v>
@@ -35492,7 +35494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" hidden="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1" t="s">
         <v>15</v>
@@ -35537,7 +35539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" hidden="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1" t="s">
         <v>15</v>
@@ -35582,7 +35584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" hidden="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1" t="s">
         <v>15</v>
@@ -35627,7 +35629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" hidden="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1" t="s">
         <v>15</v>
@@ -35672,7 +35674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" hidden="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1" t="s">
         <v>15</v>
@@ -35717,7 +35719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" hidden="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1" t="s">
         <v>15</v>
@@ -35762,7 +35764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" hidden="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1" t="s">
         <v>15</v>
@@ -35807,7 +35809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" hidden="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1" t="s">
         <v>15</v>
@@ -35852,7 +35854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" hidden="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1" t="s">
         <v>15</v>
@@ -35897,7 +35899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" hidden="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
         <v>15</v>
@@ -35942,7 +35944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" hidden="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1" t="s">
         <v>15</v>
@@ -35987,7 +35989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" hidden="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1" t="s">
         <v>15</v>
@@ -36032,7 +36034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" hidden="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
         <v>15</v>
@@ -36077,7 +36079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" hidden="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1" t="s">
         <v>15</v>
@@ -36122,7 +36124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" hidden="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1" t="s">
         <v>15</v>
@@ -36167,7 +36169,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" hidden="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1" t="s">
         <v>15</v>
@@ -36212,7 +36214,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" hidden="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1" t="s">
         <v>15</v>
@@ -36257,7 +36259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" hidden="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1" t="s">
         <v>15</v>
@@ -36302,7 +36304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" hidden="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1" t="s">
         <v>15</v>
@@ -36347,7 +36349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" hidden="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1" t="s">
         <v>15</v>
@@ -36392,7 +36394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" hidden="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1" t="s">
         <v>15</v>
@@ -36437,7 +36439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" hidden="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1" t="s">
         <v>15</v>
@@ -36482,7 +36484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" hidden="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1" t="s">
         <v>15</v>
@@ -36527,7 +36529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" hidden="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1" t="s">
         <v>15</v>
@@ -36572,7 +36574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" hidden="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1" t="s">
         <v>15</v>
@@ -36617,7 +36619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" hidden="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1" t="s">
         <v>15</v>
@@ -36662,7 +36664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" hidden="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1" t="s">
         <v>15</v>
@@ -36707,7 +36709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" hidden="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1" t="s">
         <v>15</v>
@@ -36752,7 +36754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" hidden="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="s">
         <v>15</v>
@@ -36797,7 +36799,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" hidden="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1" t="s">
         <v>15</v>
@@ -36842,7 +36844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" hidden="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1" t="s">
         <v>15</v>
@@ -36887,7 +36889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" hidden="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1" t="s">
         <v>15</v>
@@ -36932,7 +36934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" hidden="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1" t="s">
         <v>15</v>
@@ -36977,7 +36979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" hidden="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1" t="s">
         <v>15</v>
@@ -37022,7 +37024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" hidden="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1" t="s">
         <v>15</v>
@@ -37067,7 +37069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" hidden="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1" t="s">
         <v>15</v>
@@ -37112,7 +37114,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" hidden="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1" t="s">
         <v>15</v>
@@ -37157,7 +37159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" hidden="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1" t="s">
         <v>15</v>
@@ -37202,7 +37204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" hidden="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1" t="s">
         <v>15</v>
@@ -37247,7 +37249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" hidden="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1" t="s">
         <v>15</v>
@@ -37292,7 +37294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" hidden="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1" t="s">
         <v>15</v>
@@ -37337,7 +37339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" hidden="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1" t="s">
         <v>15</v>
@@ -37382,7 +37384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" hidden="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1" t="s">
         <v>15</v>
@@ -37427,7 +37429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" hidden="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1" t="s">
         <v>15</v>
@@ -37472,7 +37474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" hidden="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1" t="s">
         <v>15</v>
@@ -37517,7 +37519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" hidden="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1" t="s">
         <v>15</v>
@@ -37562,7 +37564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" hidden="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1" t="s">
         <v>15</v>
@@ -37607,7 +37609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" hidden="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1" t="s">
         <v>15</v>
@@ -37652,7 +37654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" hidden="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1" t="s">
         <v>15</v>
@@ -37697,7 +37699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" hidden="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1" t="s">
         <v>15</v>
@@ -37742,7 +37744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" hidden="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1" t="s">
         <v>15</v>
@@ -37787,7 +37789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" hidden="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1" t="s">
         <v>15</v>
@@ -37832,7 +37834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" hidden="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1" t="s">
         <v>15</v>
@@ -37877,7 +37879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" hidden="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1" t="s">
         <v>15</v>
@@ -37922,7 +37924,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" hidden="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1" t="s">
         <v>15</v>
@@ -37967,7 +37969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" hidden="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1" t="s">
         <v>15</v>
@@ -38012,7 +38014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" hidden="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1" t="s">
         <v>15</v>
@@ -38057,7 +38059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" hidden="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1" t="s">
         <v>15</v>
@@ -38102,7 +38104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" hidden="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1" t="s">
         <v>15</v>
@@ -38147,7 +38149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" hidden="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1" t="s">
         <v>15</v>
@@ -38192,7 +38194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" hidden="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1" t="s">
         <v>15</v>
@@ -38237,7 +38239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" hidden="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1" t="s">
         <v>15</v>
@@ -38282,7 +38284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" hidden="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1" t="s">
         <v>15</v>
@@ -38327,7 +38329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" hidden="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1" t="s">
         <v>15</v>
@@ -38372,7 +38374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" hidden="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1" t="s">
         <v>15</v>
@@ -38417,7 +38419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" hidden="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1" t="s">
         <v>15</v>
@@ -38462,7 +38464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" hidden="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1" t="s">
         <v>15</v>
@@ -38507,7 +38509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" hidden="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1" t="s">
         <v>15</v>
@@ -38552,7 +38554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" hidden="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1" t="s">
         <v>15</v>
@@ -38597,7 +38599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" hidden="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1" t="s">
         <v>15</v>
@@ -38642,7 +38644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" hidden="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1" t="s">
         <v>15</v>
@@ -38687,7 +38689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" hidden="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
         <v>15</v>
@@ -38732,7 +38734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" hidden="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
         <v>15</v>
@@ -38777,7 +38779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" hidden="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1" t="s">
         <v>15</v>
@@ -38822,7 +38824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" hidden="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1" t="s">
         <v>15</v>
@@ -38867,7 +38869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" hidden="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1" t="s">
         <v>15</v>
@@ -38912,7 +38914,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" hidden="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1" t="s">
         <v>15</v>
@@ -38957,7 +38959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" hidden="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1" t="s">
         <v>15</v>
@@ -39002,7 +39004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" hidden="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1" t="s">
         <v>15</v>
@@ -39047,7 +39049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" hidden="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1" t="s">
         <v>15</v>
@@ -39092,7 +39094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" hidden="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1" t="s">
         <v>15</v>
@@ -39137,7 +39139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" hidden="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1" t="s">
         <v>15</v>
@@ -39182,7 +39184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" hidden="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
         <v>15</v>
@@ -39227,7 +39229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" hidden="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1" t="s">
         <v>15</v>
@@ -39272,7 +39274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" hidden="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1" t="s">
         <v>15</v>
@@ -39317,7 +39319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" hidden="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1" t="s">
         <v>15</v>
@@ -39362,7 +39364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" hidden="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1" t="s">
         <v>15</v>
@@ -39407,7 +39409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" hidden="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1" t="s">
         <v>15</v>
@@ -39452,7 +39454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" hidden="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1" t="s">
         <v>15</v>
@@ -39497,7 +39499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" hidden="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1" t="s">
         <v>15</v>
@@ -39542,7 +39544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" hidden="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1" t="s">
         <v>15</v>
@@ -39587,7 +39589,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" hidden="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1" t="s">
         <v>15</v>
@@ -39632,7 +39634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" hidden="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1" t="s">
         <v>15</v>
@@ -39677,7 +39679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" hidden="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1" t="s">
         <v>15</v>
@@ -39722,7 +39724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" hidden="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1" t="s">
         <v>15</v>
@@ -39767,7 +39769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" hidden="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1" t="s">
         <v>15</v>
@@ -39812,7 +39814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" hidden="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1" t="s">
         <v>15</v>
@@ -39857,7 +39859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" hidden="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1" t="s">
         <v>15</v>
@@ -39902,7 +39904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" hidden="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1" t="s">
         <v>15</v>
@@ -39947,7 +39949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" hidden="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1" t="s">
         <v>15</v>
@@ -39992,7 +39994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" hidden="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1" t="s">
         <v>15</v>
@@ -40037,7 +40039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" hidden="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1" t="s">
         <v>15</v>
@@ -40082,7 +40084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" hidden="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1" t="s">
         <v>15</v>
@@ -40127,7 +40129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" hidden="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1" t="s">
         <v>15</v>
@@ -40172,7 +40174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" hidden="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1" t="s">
         <v>15</v>
@@ -40217,7 +40219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" hidden="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1" t="s">
         <v>15</v>
@@ -40262,7 +40264,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" hidden="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1" t="s">
         <v>15</v>
@@ -40307,7 +40309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:15" hidden="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1" t="s">
         <v>15</v>
@@ -40352,7 +40354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" hidden="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1" t="s">
         <v>15</v>
@@ -40397,7 +40399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" hidden="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1" t="s">
         <v>15</v>
@@ -40442,7 +40444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:15" hidden="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1" t="s">
         <v>15</v>
@@ -40487,7 +40489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" hidden="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1" t="s">
         <v>15</v>
@@ -40532,7 +40534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" hidden="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1" t="s">
         <v>15</v>
@@ -40577,7 +40579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" hidden="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1" t="s">
         <v>15</v>
@@ -40622,7 +40624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" hidden="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1" t="s">
         <v>15</v>
@@ -40667,7 +40669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" hidden="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1" t="s">
         <v>15</v>
@@ -40712,7 +40714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" hidden="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1" t="s">
         <v>15</v>
@@ -40757,7 +40759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:15" hidden="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1" t="s">
         <v>15</v>
@@ -40802,7 +40804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" hidden="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1" t="s">
         <v>15</v>
@@ -40847,7 +40849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" hidden="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1" t="s">
         <v>15</v>
@@ -40892,7 +40894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" hidden="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1" t="s">
         <v>15</v>
@@ -40937,7 +40939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" hidden="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1" t="s">
         <v>15</v>
@@ -40982,7 +40984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" hidden="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1" t="s">
         <v>15</v>
@@ -41027,7 +41029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" hidden="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1" t="s">
         <v>15</v>
@@ -41072,7 +41074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:15" hidden="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1" t="s">
         <v>15</v>
@@ -41117,7 +41119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" hidden="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1" t="s">
         <v>15</v>
@@ -41162,7 +41164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" hidden="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1" t="s">
         <v>15</v>
@@ -41207,7 +41209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" hidden="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1" t="s">
         <v>15</v>
@@ -41252,7 +41254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" hidden="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1" t="s">
         <v>15</v>
@@ -41297,7 +41299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" hidden="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1" t="s">
         <v>15</v>
@@ -41342,7 +41344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" hidden="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1" t="s">
         <v>15</v>
@@ -41387,7 +41389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:15" hidden="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1" t="s">
         <v>15</v>
@@ -41432,7 +41434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" hidden="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1" t="s">
         <v>15</v>
@@ -41477,7 +41479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:15" hidden="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1" t="s">
         <v>15</v>
@@ -41522,7 +41524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:15" hidden="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1" t="s">
         <v>15</v>
@@ -41567,7 +41569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:15" hidden="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1" t="s">
         <v>15</v>
@@ -41612,7 +41614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:15" hidden="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1" t="s">
         <v>15</v>
@@ -41657,7 +41659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:15" hidden="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1" t="s">
         <v>15</v>
@@ -41702,7 +41704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:15" hidden="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1" t="s">
         <v>15</v>
@@ -41747,7 +41749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:15" hidden="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1" t="s">
         <v>15</v>
@@ -41792,7 +41794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:15" hidden="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1" t="s">
         <v>15</v>
@@ -41837,7 +41839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:15" hidden="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1" t="s">
         <v>15</v>
@@ -41882,7 +41884,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:15" hidden="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1" t="s">
         <v>15</v>
@@ -41927,7 +41929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:15" hidden="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1" t="s">
         <v>15</v>
@@ -41972,7 +41974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:15" hidden="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1" t="s">
         <v>15</v>
@@ -42017,7 +42019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:15" hidden="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1" t="s">
         <v>15</v>
@@ -42062,7 +42064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:15" hidden="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1" t="s">
         <v>15</v>
@@ -42107,7 +42109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:15" hidden="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1" t="s">
         <v>15</v>
@@ -42152,7 +42154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:15" hidden="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1" t="s">
         <v>15</v>
@@ -42197,7 +42199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:15" hidden="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1" t="s">
         <v>15</v>
@@ -42242,7 +42244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:15" hidden="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1" t="s">
         <v>15</v>
@@ -42287,7 +42289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15" hidden="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1" t="s">
         <v>15</v>
@@ -42332,7 +42334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15" hidden="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1" t="s">
         <v>15</v>
@@ -42377,7 +42379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15" hidden="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1" t="s">
         <v>15</v>
@@ -42422,7 +42424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15" hidden="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1" t="s">
         <v>15</v>
@@ -42467,7 +42469,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15" hidden="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1" t="s">
         <v>15</v>
@@ -42512,7 +42514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" hidden="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1" t="s">
         <v>15</v>
@@ -42557,7 +42559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15" hidden="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1" t="s">
         <v>15</v>
@@ -42602,7 +42604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15" hidden="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1" t="s">
         <v>15</v>
@@ -42647,7 +42649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:15" hidden="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1" t="s">
         <v>15</v>
@@ -42692,7 +42694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:15" hidden="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1" t="s">
         <v>15</v>
@@ -42737,7 +42739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:15" hidden="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1" t="s">
         <v>15</v>
@@ -42782,7 +42784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:15" hidden="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1" t="s">
         <v>15</v>
@@ -42827,7 +42829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" hidden="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1" t="s">
         <v>15</v>
@@ -42872,7 +42874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15" hidden="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1" t="s">
         <v>15</v>
@@ -42917,7 +42919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15" hidden="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1" t="s">
         <v>15</v>
@@ -42962,7 +42964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15" hidden="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1" t="s">
         <v>15</v>
@@ -43007,7 +43009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:15" hidden="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1" t="s">
         <v>15</v>
@@ -43052,7 +43054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:15" hidden="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1" t="s">
         <v>15</v>
@@ -43097,7 +43099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:15" hidden="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1" t="s">
         <v>15</v>
@@ -43142,7 +43144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:15" hidden="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1" t="s">
         <v>15</v>
@@ -43187,7 +43189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:15" hidden="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1" t="s">
         <v>15</v>
@@ -43233,6 +43235,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q789">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AVONWICK AVE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -43240,24 +43249,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
